--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/42/incorrect_predictions_42.xlsx
@@ -487,26 +487,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>37-39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori5/42/incorrect_predictions_42.xlsx
@@ -487,26 +487,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Compass Before Takeoff</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37-39</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
